--- a/Code/Results/Cases/Case_2_173/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_173/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.754683392283596</v>
+        <v>2.713081968153176</v>
       </c>
       <c r="C2">
-        <v>0.7694605763142022</v>
+        <v>0.2595091417840933</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1155732899735256</v>
+        <v>0.06320847420602149</v>
       </c>
       <c r="F2">
-        <v>7.022542194090988</v>
+        <v>5.664853704764795</v>
       </c>
       <c r="G2">
-        <v>0.0008392468746521751</v>
+        <v>0.00264677777518969</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.7734512235235798</v>
+        <v>0.4906333479685685</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.01197674905396973</v>
+        <v>0.1592158123296752</v>
       </c>
       <c r="M2">
-        <v>0.2482688000830251</v>
+        <v>0.4228447748622628</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.411082591309594</v>
+        <v>2.66351744507574</v>
       </c>
       <c r="C3">
-        <v>0.6581568805403322</v>
+        <v>0.2316076685602297</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.09962357503729891</v>
+        <v>0.05859126288692451</v>
       </c>
       <c r="F3">
-        <v>6.307709603939514</v>
+        <v>5.47632377813008</v>
       </c>
       <c r="G3">
-        <v>0.0008516572678189013</v>
+        <v>0.002653882069416295</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,16 +492,16 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.6975695523214256</v>
+        <v>0.4682034706495415</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.01163420915588453</v>
+        <v>0.1627636293401729</v>
       </c>
       <c r="M3">
-        <v>0.2200652307250337</v>
+        <v>0.423761533887145</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.207808594773269</v>
+        <v>2.635517553267221</v>
       </c>
       <c r="C4">
-        <v>0.5916142626450096</v>
+        <v>0.2146314260194231</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.09003788198310403</v>
+        <v>0.05574892713754664</v>
       </c>
       <c r="F4">
-        <v>5.879815311884244</v>
+        <v>5.3615717116881</v>
       </c>
       <c r="G4">
-        <v>0.0008594290278155245</v>
+        <v>0.002658467578734359</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,16 +539,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.6520090043357811</v>
+        <v>0.4543669209867431</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.01162619661942976</v>
+        <v>0.1650913798506348</v>
       </c>
       <c r="M4">
-        <v>0.2036785042269358</v>
+        <v>0.4247530577268499</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.126673654543367</v>
+        <v>2.624716808793551</v>
       </c>
       <c r="C5">
-        <v>0.5648789689341243</v>
+        <v>0.2077513920593788</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.08617481859530329</v>
+        <v>0.05458861875722931</v>
       </c>
       <c r="F5">
-        <v>5.707814433760007</v>
+        <v>5.315054884482066</v>
       </c>
       <c r="G5">
-        <v>0.000862638094628554</v>
+        <v>0.002660392618008382</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,16 +586,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.6336568091256538</v>
+        <v>0.4487110548231215</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.01166942222819678</v>
+        <v>0.1660774820554387</v>
       </c>
       <c r="M5">
-        <v>0.1972102482810065</v>
+        <v>0.4252647610724409</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.113297618327181</v>
+        <v>2.622960095037001</v>
       </c>
       <c r="C6">
-        <v>0.5604607080151993</v>
+        <v>0.206611224895056</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.08553572358061956</v>
+        <v>0.05439582222412653</v>
       </c>
       <c r="F6">
-        <v>5.679386023909188</v>
+        <v>5.307345417604836</v>
       </c>
       <c r="G6">
-        <v>0.0008631736001199322</v>
+        <v>0.002660715682523351</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,16 +633,16 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.6306211411616118</v>
+        <v>0.4477708209486337</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.01167928899583615</v>
+        <v>0.1662434889382425</v>
       </c>
       <c r="M6">
-        <v>0.196148188070417</v>
+        <v>0.4253562270656133</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.206707785117317</v>
+        <v>2.635369426075727</v>
       </c>
       <c r="C7">
-        <v>0.5912522447715673</v>
+        <v>0.2145384874322076</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.08998561968420304</v>
+        <v>0.05573328729077076</v>
       </c>
       <c r="F7">
-        <v>5.877486552282136</v>
+        <v>5.360943384916226</v>
       </c>
       <c r="G7">
-        <v>0.0008594721314620682</v>
+        <v>0.002658493311929803</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,16 +680,16 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.6517606895879595</v>
+        <v>0.4542907157877778</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.01162659676478839</v>
+        <v>0.1651045268788991</v>
       </c>
       <c r="M7">
-        <v>0.2035904532432475</v>
+        <v>0.424759523034421</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.634461828471785</v>
+        <v>2.695485710538321</v>
       </c>
       <c r="C8">
-        <v>0.7306645053097611</v>
+        <v>0.2498557619057351</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1100250245926802</v>
+        <v>0.06161787194267987</v>
       </c>
       <c r="F8">
-        <v>6.773526385770737</v>
+        <v>5.599635234695683</v>
       </c>
       <c r="G8">
-        <v>0.0008434969450412666</v>
+        <v>0.002649181092926419</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,16 +727,16 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.7470444331086696</v>
+        <v>0.4829122246875102</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.01181385096040444</v>
+        <v>0.1604080741018254</v>
       </c>
       <c r="M8">
-        <v>0.2383354337782642</v>
+        <v>0.4230718262669377</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.546642803116981</v>
+        <v>2.83279803290435</v>
       </c>
       <c r="C9">
-        <v>1.022026494713771</v>
+        <v>0.3204014771848165</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1514360614749748</v>
+        <v>0.07310808462396068</v>
       </c>
       <c r="F9">
-        <v>8.638805958519043</v>
+        <v>6.076052143528557</v>
       </c>
       <c r="G9">
-        <v>0.0008131737891620814</v>
+        <v>0.002632682712789602</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,16 +774,16 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.9444156929479419</v>
+        <v>0.5385805673337529</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.0140148624886649</v>
+        <v>0.1523852423030156</v>
       </c>
       <c r="M9">
-        <v>0.3151351834726839</v>
+        <v>0.4231706375365363</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.28185789369968</v>
+        <v>2.945711141734705</v>
       </c>
       <c r="C10">
-        <v>1.253196501247828</v>
+        <v>0.3731001915127194</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1839190797546237</v>
+        <v>0.08153282894105018</v>
       </c>
       <c r="F10">
-        <v>10.10913565625037</v>
+        <v>6.431697925398481</v>
       </c>
       <c r="G10">
-        <v>0.0007911800110363589</v>
+        <v>0.002621621886510845</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,16 +821,16 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.09966928216113</v>
+        <v>0.5792780763050018</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.01712820589261099</v>
+        <v>0.147216736590746</v>
       </c>
       <c r="M10">
-        <v>0.3789726166552754</v>
+        <v>0.4253333408225757</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.636147919285179</v>
+        <v>2.999733728464207</v>
       </c>
       <c r="C11">
-        <v>1.363807378437173</v>
+        <v>0.3972814721047371</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1993580393164507</v>
+        <v>0.08536462511649034</v>
       </c>
       <c r="F11">
-        <v>10.80912117819111</v>
+        <v>6.594830752483915</v>
       </c>
       <c r="G11">
-        <v>0.0007811454688961736</v>
+        <v>0.002616817277485655</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.173584062414903</v>
+        <v>0.5977655727142803</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.01897590334764132</v>
+        <v>0.1450236029937209</v>
       </c>
       <c r="M11">
-        <v>0.4102238650110834</v>
+        <v>0.4267740247605545</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.773755792691929</v>
+        <v>3.020576208424927</v>
       </c>
       <c r="C12">
-        <v>1.406657941099354</v>
+        <v>0.4064696986279159</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2053219121641092</v>
+        <v>0.08681575278194487</v>
       </c>
       <c r="F12">
-        <v>11.07963254495314</v>
+        <v>6.656807885479736</v>
       </c>
       <c r="G12">
-        <v>0.0007773320231603265</v>
+        <v>0.00261503030697668</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,16 +915,16 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.20215628224355</v>
+        <v>0.6047638962533597</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.01974877660236984</v>
+        <v>0.1442158999674916</v>
       </c>
       <c r="M12">
-        <v>0.4224387809151793</v>
+        <v>0.4273855069761083</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.743955440150728</v>
+        <v>3.016070220612846</v>
       </c>
       <c r="C13">
-        <v>1.397383112834007</v>
+        <v>0.4044894359780074</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2040318575313123</v>
+        <v>0.08650321831080277</v>
       </c>
       <c r="F13">
-        <v>11.02111360314058</v>
+        <v>6.643450868545301</v>
       </c>
       <c r="G13">
-        <v>0.0007781540901322545</v>
+        <v>0.002615413724046826</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.195974870502994</v>
+        <v>0.6032567727705498</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.01957886674762932</v>
+        <v>0.1443888386957894</v>
       </c>
       <c r="M13">
-        <v>0.4197900048399745</v>
+        <v>0.4272508774285555</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.647396103418259</v>
+        <v>3.001440711720647</v>
       </c>
       <c r="C14">
-        <v>1.367312215963636</v>
+        <v>0.3980367579684412</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1998461927898418</v>
+        <v>0.08548400688293611</v>
       </c>
       <c r="F14">
-        <v>10.83126103112403</v>
+        <v>6.599925545692088</v>
       </c>
       <c r="G14">
-        <v>0.0007808320667951807</v>
+        <v>0.00261666961363311</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,16 +1009,16 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.175922342506709</v>
+        <v>0.5983413717002577</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.01903794911368095</v>
+        <v>0.1449566956871742</v>
       </c>
       <c r="M14">
-        <v>0.4112207563541617</v>
+        <v>0.4268230091391771</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.588719170340084</v>
+        <v>2.992529986297939</v>
       </c>
       <c r="C15">
-        <v>1.349024556143377</v>
+        <v>0.3940884227521906</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1972983876551879</v>
+        <v>0.0848597308552641</v>
       </c>
       <c r="F15">
-        <v>10.71571145887344</v>
+        <v>6.573291624102694</v>
       </c>
       <c r="G15">
-        <v>0.000782470326756871</v>
+        <v>0.002617443099401727</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.163719033554969</v>
+        <v>0.5953302596576293</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.01871652312325978</v>
+        <v>0.1453074941923944</v>
       </c>
       <c r="M15">
-        <v>0.4060235137373738</v>
+        <v>0.4265695200950219</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.259151431164867</v>
+        <v>2.942234384223582</v>
       </c>
       <c r="C16">
-        <v>1.246092130504735</v>
+        <v>0.3715241945693606</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1829252363974589</v>
+        <v>0.08128241617390586</v>
       </c>
       <c r="F16">
-        <v>10.06409472848026</v>
+        <v>6.421064652360428</v>
       </c>
       <c r="G16">
-        <v>0.0007918344409754141</v>
+        <v>0.002621940428896714</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,16 +1103,16 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1.094913836195417</v>
+        <v>0.5780694581267767</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.01701703875627913</v>
+        <v>0.1473632485789693</v>
       </c>
       <c r="M16">
-        <v>0.3769798501051085</v>
+        <v>0.4252484013404398</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.062439263546139</v>
+        <v>2.912062574849131</v>
       </c>
       <c r="C17">
-        <v>1.184459968690135</v>
+        <v>0.3577360828468272</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1742918916638772</v>
+        <v>0.07908782478831</v>
       </c>
       <c r="F17">
-        <v>9.672952538141601</v>
+        <v>6.328029509899125</v>
       </c>
       <c r="G17">
-        <v>0.0007975653769416376</v>
+        <v>0.002624757386994022</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,16 +1150,16 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1.053617926122826</v>
+        <v>0.5674747394973565</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.01609221392816096</v>
+        <v>0.1486649101100035</v>
       </c>
       <c r="M17">
-        <v>0.3597696737470883</v>
+        <v>0.4245551104614051</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.951121093806819</v>
+        <v>2.894958525305867</v>
       </c>
       <c r="C18">
-        <v>1.14951107481636</v>
+        <v>0.3498250569376751</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1693869971911042</v>
+        <v>0.07782547912387372</v>
       </c>
       <c r="F18">
-        <v>9.450840096316426</v>
+        <v>6.274644501024113</v>
       </c>
       <c r="G18">
-        <v>0.0008008595403268259</v>
+        <v>0.002626399007088516</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,16 +1197,16 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>1.030167563564049</v>
+        <v>0.5613784143289706</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.01560010258477718</v>
+        <v>0.1494284635183938</v>
       </c>
       <c r="M18">
-        <v>0.3500745545989616</v>
+        <v>0.4241993350808926</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.913727993015243</v>
+        <v>2.889210228958177</v>
       </c>
       <c r="C19">
-        <v>1.137758975394036</v>
+        <v>0.3471498337301568</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1677361143383607</v>
+        <v>0.07739805153768486</v>
       </c>
       <c r="F19">
-        <v>9.376101692368451</v>
+        <v>6.256590698543988</v>
       </c>
       <c r="G19">
-        <v>0.0008019747797209931</v>
+        <v>0.002626958510517332</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>1.02227653478252</v>
+        <v>0.5593138321862057</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.01544001739983258</v>
+        <v>0.1496895420243831</v>
       </c>
       <c r="M19">
-        <v>0.3468252308871058</v>
+        <v>0.4240862519164281</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.083186756559712</v>
+        <v>2.915248521634339</v>
       </c>
       <c r="C20">
-        <v>1.190967844624197</v>
+        <v>0.3592018198675646</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.175204488483935</v>
+        <v>0.07932144904789595</v>
       </c>
       <c r="F20">
-        <v>9.71428764617022</v>
+        <v>6.337920122632738</v>
       </c>
       <c r="G20">
-        <v>0.0007969555902786473</v>
+        <v>0.002624455305523359</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>1.057981969537821</v>
+        <v>0.5686028175219349</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.01618646780992705</v>
+        <v>0.1485248063667726</v>
       </c>
       <c r="M20">
-        <v>0.361580227637873</v>
+        <v>0.4246244618190858</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.675659059904433</v>
+        <v>3.005727270943851</v>
       </c>
       <c r="C21">
-        <v>1.376116957221541</v>
+        <v>0.3999312056417352</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2010722359533617</v>
+        <v>0.08578336936479047</v>
       </c>
       <c r="F21">
-        <v>10.88686899102493</v>
+        <v>6.612704430308327</v>
       </c>
       <c r="G21">
-        <v>0.0007800459327165472</v>
+        <v>0.002616299850106075</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.181795473587243</v>
+        <v>0.5997852017000582</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.01919474297451274</v>
+        <v>0.1447892833254798</v>
       </c>
       <c r="M21">
-        <v>0.4137268533952891</v>
+        <v>0.4269468932987195</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.083330059219918</v>
+        <v>3.067107696682967</v>
       </c>
       <c r="C22">
-        <v>1.502858623424515</v>
+        <v>0.4267332965055743</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2186768744656575</v>
+        <v>0.09000734376050445</v>
       </c>
       <c r="F22">
-        <v>11.68553468524703</v>
+        <v>6.793474887833042</v>
       </c>
       <c r="G22">
-        <v>0.0007689095294521984</v>
+        <v>0.002611158719491279</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.266176347448123</v>
+        <v>0.6201507683061607</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.02159440331310236</v>
+        <v>0.142480765945912</v>
       </c>
       <c r="M22">
-        <v>0.450066292735535</v>
+        <v>0.4288491227746007</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.863646836160171</v>
+        <v>3.034141123989343</v>
       </c>
       <c r="C23">
-        <v>1.43461915095088</v>
+        <v>0.4124113151762003</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2092084322198104</v>
+        <v>0.08775279341075759</v>
       </c>
       <c r="F23">
-        <v>11.25594338483006</v>
+        <v>6.696883210859085</v>
       </c>
       <c r="G23">
-        <v>0.0007748646163276942</v>
+        <v>0.00261388542116919</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.220781877597688</v>
+        <v>0.6092821396033798</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.02026966620908155</v>
+        <v>0.1437006869032089</v>
       </c>
       <c r="M23">
-        <v>0.4304402357842818</v>
+        <v>0.4277986161394267</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.073801331654806</v>
+        <v>2.913807401158806</v>
       </c>
       <c r="C24">
-        <v>1.188024138706737</v>
+        <v>0.3585391106020097</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1747917227709692</v>
+        <v>0.07921582954735129</v>
       </c>
       <c r="F24">
-        <v>9.695591516187392</v>
+        <v>6.333448259129767</v>
       </c>
       <c r="G24">
-        <v>0.0007972312759969153</v>
+        <v>0.002624591807762836</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,16 +1479,16 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1.056008086433138</v>
+        <v>0.5680928299883021</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.01614373314981421</v>
+        <v>0.1485880998951714</v>
       </c>
       <c r="M24">
-        <v>0.3607610601971487</v>
+        <v>0.4245929747539776</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.290125057227328</v>
+        <v>2.793552801655892</v>
       </c>
       <c r="C25">
-        <v>0.9407082039558077</v>
+        <v>0.3011705251186925</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1399349736376472</v>
+        <v>0.07000363253250796</v>
       </c>
       <c r="F25">
-        <v>8.119431772469085</v>
+        <v>5.946220623456753</v>
       </c>
       <c r="G25">
-        <v>0.000821300222534219</v>
+        <v>0.00263695869955427</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,16 +1526,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.8895358779002152</v>
+        <v>0.523561918941013</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.01318786840676722</v>
+        <v>0.1544283353247309</v>
       </c>
       <c r="M25">
-        <v>0.2932328338993599</v>
+        <v>0.4227777915320203</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_173/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_173/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.713081968153176</v>
+        <v>2.754683392283482</v>
       </c>
       <c r="C2">
-        <v>0.2595091417840933</v>
+        <v>0.769460576313719</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.06320847420602149</v>
+        <v>0.1155732899733977</v>
       </c>
       <c r="F2">
-        <v>5.664853704764795</v>
+        <v>7.022542194090903</v>
       </c>
       <c r="G2">
-        <v>0.00264677777518969</v>
+        <v>0.0008392468745457796</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4906333479685685</v>
+        <v>0.7734512235234803</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1592158123296752</v>
+        <v>0.01197674905400525</v>
       </c>
       <c r="M2">
-        <v>0.4228447748622628</v>
+        <v>0.2482688000829718</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.66351744507574</v>
+        <v>2.41108259130948</v>
       </c>
       <c r="C3">
-        <v>0.2316076685602297</v>
+        <v>0.6581568805399627</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.05859126288692451</v>
+        <v>0.09962357503738417</v>
       </c>
       <c r="F3">
-        <v>5.47632377813008</v>
+        <v>6.307709603939458</v>
       </c>
       <c r="G3">
-        <v>0.002653882069416295</v>
+        <v>0.0008516572676031675</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,16 +492,16 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.4682034706495415</v>
+        <v>0.6975695523214256</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1627636293401729</v>
+        <v>0.0116342091559023</v>
       </c>
       <c r="M3">
-        <v>0.423761533887145</v>
+        <v>0.2200652307250337</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.635517553267221</v>
+        <v>2.207808594773326</v>
       </c>
       <c r="C4">
-        <v>0.2146314260194231</v>
+        <v>0.5916142626446401</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.05574892713754664</v>
+        <v>0.09003788198314311</v>
       </c>
       <c r="F4">
-        <v>5.3615717116881</v>
+        <v>5.879815311884187</v>
       </c>
       <c r="G4">
-        <v>0.002658467578734359</v>
+        <v>0.0008594290276381109</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,16 +539,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.4543669209867431</v>
+        <v>0.6520090043358095</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1650913798506348</v>
+        <v>0.011626196619277</v>
       </c>
       <c r="M4">
-        <v>0.4247530577268499</v>
+        <v>0.2036785042269429</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.624716808793551</v>
+        <v>2.12667365454331</v>
       </c>
       <c r="C5">
-        <v>0.2077513920593788</v>
+        <v>0.564878968934579</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.05458861875722931</v>
+        <v>0.08617481859528198</v>
       </c>
       <c r="F5">
-        <v>5.315054884482066</v>
+        <v>5.707814433760007</v>
       </c>
       <c r="G5">
-        <v>0.002660392618008382</v>
+        <v>0.0008626380946192009</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,16 +586,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.4487110548231215</v>
+        <v>0.6336568091257817</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1660774820554387</v>
+        <v>0.01166942222811507</v>
       </c>
       <c r="M5">
-        <v>0.4252647610724409</v>
+        <v>0.1972102482810172</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.622960095037001</v>
+        <v>2.11329761832701</v>
       </c>
       <c r="C6">
-        <v>0.206611224895056</v>
+        <v>0.5604607080151141</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.05439582222412653</v>
+        <v>0.08553572358057693</v>
       </c>
       <c r="F6">
-        <v>5.307345417604836</v>
+        <v>5.679386023909274</v>
       </c>
       <c r="G6">
-        <v>0.002660715682523351</v>
+        <v>0.0008631736000986552</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,16 +633,16 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.4477708209486337</v>
+        <v>0.6306211411615266</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1662434889382425</v>
+        <v>0.01167928899572068</v>
       </c>
       <c r="M6">
-        <v>0.4253562270656133</v>
+        <v>0.1961481880704206</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.635369426075727</v>
+        <v>2.206707785116976</v>
       </c>
       <c r="C7">
-        <v>0.2145384874322076</v>
+        <v>0.5912522447710842</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.05573328729077076</v>
+        <v>0.08998561968416396</v>
       </c>
       <c r="F7">
-        <v>5.360943384916226</v>
+        <v>5.877486552282221</v>
       </c>
       <c r="G7">
-        <v>0.002658493311929803</v>
+        <v>0.0008594721314625353</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,16 +680,16 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.4542907157877778</v>
+        <v>0.6517606895878743</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1651045268788991</v>
+        <v>0.01162659676493405</v>
       </c>
       <c r="M7">
-        <v>0.424759523034421</v>
+        <v>0.2035904532432227</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.695485710538321</v>
+        <v>2.634461828471842</v>
       </c>
       <c r="C8">
-        <v>0.2498557619057351</v>
+        <v>0.7306645053091643</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.06161787194267987</v>
+        <v>0.1100250245926553</v>
       </c>
       <c r="F8">
-        <v>5.599635234695683</v>
+        <v>6.773526385770879</v>
       </c>
       <c r="G8">
-        <v>0.002649181092926419</v>
+        <v>0.0008434969445442266</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,16 +727,16 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4829122246875102</v>
+        <v>0.7470444331088686</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1604080741018254</v>
+        <v>0.0118138509606549</v>
       </c>
       <c r="M8">
-        <v>0.4230718262669377</v>
+        <v>0.2383354337782642</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.83279803290435</v>
+        <v>3.546642803117265</v>
       </c>
       <c r="C9">
-        <v>0.3204014771848165</v>
+        <v>1.022026494713202</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.07310808462396068</v>
+        <v>0.1514360614749393</v>
       </c>
       <c r="F9">
-        <v>6.076052143528557</v>
+        <v>8.638805958519129</v>
       </c>
       <c r="G9">
-        <v>0.002632682712789602</v>
+        <v>0.0008131737892575831</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,16 +774,16 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.5385805673337529</v>
+        <v>0.9444156929482119</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1523852423030156</v>
+        <v>0.01401486248870398</v>
       </c>
       <c r="M9">
-        <v>0.4231706375365363</v>
+        <v>0.3151351834726057</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.945711141734705</v>
+        <v>4.281857893699453</v>
       </c>
       <c r="C10">
-        <v>0.3731001915127194</v>
+        <v>1.253196501246748</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.08153282894105018</v>
+        <v>0.1839190797545314</v>
       </c>
       <c r="F10">
-        <v>6.431697925398481</v>
+        <v>10.10913565625034</v>
       </c>
       <c r="G10">
-        <v>0.002621621886510845</v>
+        <v>0.0007911800108835796</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,16 +821,16 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.5792780763050018</v>
+        <v>1.099669282161187</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.147216736590746</v>
+        <v>0.01712820589249731</v>
       </c>
       <c r="M10">
-        <v>0.4253333408225757</v>
+        <v>0.3789726166552825</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.999733728464207</v>
+        <v>4.636147919285236</v>
       </c>
       <c r="C11">
-        <v>0.3972814721047371</v>
+        <v>1.363807378437059</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.08536462511649034</v>
+        <v>0.1993580393163583</v>
       </c>
       <c r="F11">
-        <v>6.594830752483915</v>
+        <v>10.80912117819128</v>
       </c>
       <c r="G11">
-        <v>0.002616817277485655</v>
+        <v>0.0007811454689958098</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.5977655727142803</v>
+        <v>1.173584062414761</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.1450236029937209</v>
+        <v>0.01897590334789356</v>
       </c>
       <c r="M11">
-        <v>0.4267740247605545</v>
+        <v>0.4102238650110621</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.020576208424927</v>
+        <v>4.773755792692043</v>
       </c>
       <c r="C12">
-        <v>0.4064696986279159</v>
+        <v>1.406657941099809</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.08681575278194487</v>
+        <v>0.2053219121639884</v>
       </c>
       <c r="F12">
-        <v>6.656807885479736</v>
+        <v>11.0796325449532</v>
       </c>
       <c r="G12">
-        <v>0.00261503030697668</v>
+        <v>0.0007773320229026789</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,16 +915,16 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.6047638962533597</v>
+        <v>1.20215628224372</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.1442158999674916</v>
+        <v>0.01974877660226326</v>
       </c>
       <c r="M12">
-        <v>0.4273855069761083</v>
+        <v>0.4224387809151935</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.016070220612846</v>
+        <v>4.743955440150444</v>
       </c>
       <c r="C13">
-        <v>0.4044894359780074</v>
+        <v>1.397383112832983</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.08650321831080277</v>
+        <v>0.2040318575313691</v>
       </c>
       <c r="F13">
-        <v>6.643450868545301</v>
+        <v>11.02111360314052</v>
       </c>
       <c r="G13">
-        <v>0.002615413724046826</v>
+        <v>0.0007781540899778089</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.6032567727705498</v>
+        <v>1.195974870503051</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.1443888386957894</v>
+        <v>0.01957886674757248</v>
       </c>
       <c r="M13">
-        <v>0.4272508774285555</v>
+        <v>0.4197900048400598</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.001440711720647</v>
+        <v>4.647396103417861</v>
       </c>
       <c r="C14">
-        <v>0.3980367579684412</v>
+        <v>1.367312215962784</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.08548400688293611</v>
+        <v>0.1998461927898063</v>
       </c>
       <c r="F14">
-        <v>6.599925545692088</v>
+        <v>10.83126103112374</v>
       </c>
       <c r="G14">
-        <v>0.00261666961363311</v>
+        <v>0.0007808320669218888</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,16 +1009,16 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.5983413717002577</v>
+        <v>1.175922342506624</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.1449566956871742</v>
+        <v>0.01903794911365964</v>
       </c>
       <c r="M14">
-        <v>0.4268230091391771</v>
+        <v>0.4112207563541759</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.992529986297939</v>
+        <v>4.588719170340198</v>
       </c>
       <c r="C15">
-        <v>0.3940884227521906</v>
+        <v>1.34902455614349</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.0848597308552641</v>
+        <v>0.1972983876550103</v>
       </c>
       <c r="F15">
-        <v>6.573291624102694</v>
+        <v>10.71571145887327</v>
       </c>
       <c r="G15">
-        <v>0.002617443099401727</v>
+        <v>0.0007824703270686012</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.5953302596576293</v>
+        <v>1.163719033554742</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.1453074941923944</v>
+        <v>0.01871652312281924</v>
       </c>
       <c r="M15">
-        <v>0.4265695200950219</v>
+        <v>0.4060235137373454</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.942234384223582</v>
+        <v>4.259151431165265</v>
       </c>
       <c r="C16">
-        <v>0.3715241945693606</v>
+        <v>1.246092130505758</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.08128241617390586</v>
+        <v>0.1829252363973666</v>
       </c>
       <c r="F16">
-        <v>6.421064652360428</v>
+        <v>10.06409472848017</v>
       </c>
       <c r="G16">
-        <v>0.002621940428896714</v>
+        <v>0.0007918344411019483</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,16 +1103,16 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.5780694581267767</v>
+        <v>1.094913836195417</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.1473632485789693</v>
+        <v>0.0170170387562294</v>
       </c>
       <c r="M16">
-        <v>0.4252484013404398</v>
+        <v>0.3769798501051014</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.912062574849131</v>
+        <v>4.062439263546423</v>
       </c>
       <c r="C17">
-        <v>0.3577360828468272</v>
+        <v>1.184459968690248</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.07908782478831</v>
+        <v>0.1742918916639837</v>
       </c>
       <c r="F17">
-        <v>6.328029509899125</v>
+        <v>9.672952538141629</v>
       </c>
       <c r="G17">
-        <v>0.002624757386994022</v>
+        <v>0.0007975653769278751</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,16 +1150,16 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.5674747394973565</v>
+        <v>1.053617926122882</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1486649101100035</v>
+        <v>0.01609221392823201</v>
       </c>
       <c r="M17">
-        <v>0.4245551104614051</v>
+        <v>0.3597696737470741</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.894958525305867</v>
+        <v>3.95112109380716</v>
       </c>
       <c r="C18">
-        <v>0.3498250569376751</v>
+        <v>1.149511074816473</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.07782547912387372</v>
+        <v>0.1693869971909407</v>
       </c>
       <c r="F18">
-        <v>6.274644501024113</v>
+        <v>9.450840096316313</v>
       </c>
       <c r="G18">
-        <v>0.002626399007088516</v>
+        <v>0.0008008595404812985</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,16 +1197,16 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.5613784143289706</v>
+        <v>1.030167563564021</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1494284635183938</v>
+        <v>0.01560010258507916</v>
       </c>
       <c r="M18">
-        <v>0.4241993350808926</v>
+        <v>0.3500745545989759</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.889210228958177</v>
+        <v>3.913727993015584</v>
       </c>
       <c r="C19">
-        <v>0.3471498337301568</v>
+        <v>1.137758975394092</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.07739805153768486</v>
+        <v>0.1677361143384317</v>
       </c>
       <c r="F19">
-        <v>6.256590698543988</v>
+        <v>9.376101692368337</v>
       </c>
       <c r="G19">
-        <v>0.002626958510517332</v>
+        <v>0.000801974779589352</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.5593138321862057</v>
+        <v>1.02227653478235</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1496895420243831</v>
+        <v>0.01544001740004575</v>
       </c>
       <c r="M19">
-        <v>0.4240862519164281</v>
+        <v>0.3468252308871342</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.915248521634339</v>
+        <v>4.083186756559485</v>
       </c>
       <c r="C20">
-        <v>0.3592018198675646</v>
+        <v>1.190967844624652</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.07932144904789595</v>
+        <v>0.1752044884840345</v>
       </c>
       <c r="F20">
-        <v>6.337920122632738</v>
+        <v>9.714287646170135</v>
       </c>
       <c r="G20">
-        <v>0.002624455305523359</v>
+        <v>0.0007969555904018068</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.5686028175219349</v>
+        <v>1.057981969537821</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1485248063667726</v>
+        <v>0.01618646781019706</v>
       </c>
       <c r="M20">
-        <v>0.4246244618190858</v>
+        <v>0.3615802276378375</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.005727270943851</v>
+        <v>4.675659059904319</v>
       </c>
       <c r="C21">
-        <v>0.3999312056417352</v>
+        <v>1.376116957220859</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.08578336936479047</v>
+        <v>0.2010722359533474</v>
       </c>
       <c r="F21">
-        <v>6.612704430308327</v>
+        <v>10.88686899102481</v>
       </c>
       <c r="G21">
-        <v>0.002616299850106075</v>
+        <v>0.0007800459325885511</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.5997852017000582</v>
+        <v>1.181795473587215</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.1447892833254798</v>
+        <v>0.01919474297440971</v>
       </c>
       <c r="M21">
-        <v>0.4269468932987195</v>
+        <v>0.4137268533952962</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.067107696682967</v>
+        <v>5.083330059219975</v>
       </c>
       <c r="C22">
-        <v>0.4267332965055743</v>
+        <v>1.502858623425084</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.09000734376050445</v>
+        <v>0.2186768744656717</v>
       </c>
       <c r="F22">
-        <v>6.793474887833042</v>
+        <v>11.68553468524703</v>
       </c>
       <c r="G22">
-        <v>0.002611158719491279</v>
+        <v>0.0007689095296138468</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.6201507683061607</v>
+        <v>1.266176347448209</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.142480765945912</v>
+        <v>0.02159440331332618</v>
       </c>
       <c r="M22">
-        <v>0.4288491227746007</v>
+        <v>0.4500662927355421</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.034141123989343</v>
+        <v>4.863646836160228</v>
       </c>
       <c r="C23">
-        <v>0.4124113151762003</v>
+        <v>1.434619150950709</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.08775279341075759</v>
+        <v>0.2092084322197394</v>
       </c>
       <c r="F23">
-        <v>6.696883210859085</v>
+        <v>11.25594338483006</v>
       </c>
       <c r="G23">
-        <v>0.00261388542116919</v>
+        <v>0.0007748646162619627</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.6092821396033798</v>
+        <v>1.220781877597915</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.1437006869032089</v>
+        <v>0.02026966620906023</v>
       </c>
       <c r="M23">
-        <v>0.4277986161394267</v>
+        <v>0.430440235784296</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.913807401158806</v>
+        <v>4.073801331654977</v>
       </c>
       <c r="C24">
-        <v>0.3585391106020097</v>
+        <v>1.188024138707192</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.07921582954735129</v>
+        <v>0.1747917227709266</v>
       </c>
       <c r="F24">
-        <v>6.333448259129767</v>
+        <v>9.695591516187335</v>
       </c>
       <c r="G24">
-        <v>0.002624591807762836</v>
+        <v>0.0007972312762540638</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,16 +1479,16 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.5680928299883021</v>
+        <v>1.056008086433167</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1485880998951714</v>
+        <v>0.01614373314975381</v>
       </c>
       <c r="M24">
-        <v>0.4245929747539776</v>
+        <v>0.3607610601971558</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.793552801655892</v>
+        <v>3.290125057227215</v>
       </c>
       <c r="C25">
-        <v>0.3011705251186925</v>
+        <v>0.9407082039562624</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.07000363253250796</v>
+        <v>0.1399349736376863</v>
       </c>
       <c r="F25">
-        <v>5.946220623456753</v>
+        <v>8.11943177246917</v>
       </c>
       <c r="G25">
-        <v>0.00263695869955427</v>
+        <v>0.0008213002227532851</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,16 +1526,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.523561918941013</v>
+        <v>0.8895358779003573</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1544283353247309</v>
+        <v>0.01318786840703723</v>
       </c>
       <c r="M25">
-        <v>0.4227777915320203</v>
+        <v>0.2932328338993813</v>
       </c>
       <c r="N25">
         <v>0</v>
